--- a/Sorption Experiments/RaPYR_pH9/RaPYR_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaPYR_pH9/RaPYR_pH9_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
             <c:numRef>
               <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.31819999999999998</c:v>
@@ -838,11 +838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="551187024"/>
-        <c:axId val="551188200"/>
+        <c:axId val="146393728"/>
+        <c:axId val="146389024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="551187024"/>
+        <c:axId val="146393728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,12 +870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551188200"/>
+        <c:crossAx val="146389024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="551188200"/>
+        <c:axId val="146389024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,11 +899,11 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551187024"/>
+        <c:crossAx val="146393728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1328,7 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
@@ -1401,10 +1401,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>675.45997631774435</v>
-      </c>
-      <c r="C6">
-        <v>0.13742948708443162</v>
+        <v>1407</v>
+      </c>
+      <c r="C6" s="17">
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -5885,19 +5885,19 @@
       </c>
       <c r="S5">
         <f>B5*Parameters!$B$6</f>
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="T5">
         <f>SQRT((C5/B5)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S5</f>
-        <v>6.8217960029032382E-3</v>
+        <v>0.43112964975747142</v>
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>-5.5647087284691974</v>
+        <v>135.66315695463291</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>-4.2673720940641223E-2</v>
+        <v>0.49944252533496802</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -5953,19 +5953,19 @@
       </c>
       <c r="S6">
         <f>B6*Parameters!$B$6</f>
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="T6">
         <f>SQRT((C6/B6)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S6</f>
-        <v>6.8217960029032382E-3</v>
+        <v>0.43112964975747142</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>-5.6140030033219945</v>
+        <v>107.36828954315969</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>-5.3814675936683806E-2</v>
+        <v>0.49409407530100646</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -6021,19 +6021,19 @@
       </c>
       <c r="S7">
         <f>B7*Parameters!$B$6</f>
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="T7">
         <f>SQRT((C7/B7)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S7</f>
-        <v>6.8217960029032382E-3</v>
+        <v>0.43112964975747142</v>
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>10.044948379698891</v>
+        <v>140.40913208717777</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>8.3450297882472893E-2</v>
+        <v>0.55999101628547221</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6089,19 +6089,19 @@
       </c>
       <c r="S8">
         <f>B8*Parameters!$B$6</f>
-        <v>23.506007175857501</v>
+        <v>48.9636</v>
       </c>
       <c r="T8">
         <f>SQRT((C8/B8)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S8</f>
-        <v>6.7715098344118985E-2</v>
+        <v>2.1621827512955516</v>
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>109.92002778531682</v>
+        <v>629.46273848210251</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0.2291363786790829</v>
+        <v>0.6299306869924397</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -6157,19 +6157,19 @@
       </c>
       <c r="S9">
         <f>B9*Parameters!$B$6</f>
-        <v>23.506007175857501</v>
+        <v>48.9636</v>
       </c>
       <c r="T9">
         <f>SQRT((C9/B9)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S9</f>
-        <v>6.7715098344118985E-2</v>
+        <v>2.1621827512955516</v>
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>108.50052524271511</v>
+        <v>761.25931560534332</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0.18001868427965045</v>
+        <v>0.6063507035554655</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -6225,19 +6225,19 @@
       </c>
       <c r="S10">
         <f>B10*Parameters!$B$6</f>
-        <v>23.506007175857501</v>
+        <v>48.9636</v>
       </c>
       <c r="T10">
         <f>SQRT((C10/B10)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S10</f>
-        <v>6.7715098344118985E-2</v>
+        <v>2.1621827512955516</v>
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>138.15525563634205</v>
+        <v>790.91404599897021</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>0.22922034054985277</v>
+        <v>0.62997099465643536</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -6293,19 +6293,19 @@
       </c>
       <c r="S11">
         <f>B11*Parameters!$B$6</f>
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="T11">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S11</f>
-        <v>6.8217960029032368E-2</v>
+        <v>4.3112964975747143</v>
       </c>
       <c r="U11">
         <f t="shared" si="3"/>
-        <v>253.05772897434304</v>
+        <v>1435.4305579491518</v>
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
-        <v>0.23179477215125979</v>
+        <v>0.6312069047548845</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -6361,19 +6361,19 @@
       </c>
       <c r="S12">
         <f>B12*Parameters!$B$6</f>
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="T12">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S12</f>
-        <v>6.8217960029032368E-2</v>
+        <v>4.3112964975747143</v>
       </c>
       <c r="U12">
         <f t="shared" si="3"/>
-        <v>286.22362907403823</v>
+        <v>1589.8654661488272</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
-        <v>0.23778566304535767</v>
+        <v>0.63408295807503345</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -6429,19 +6429,19 @@
       </c>
       <c r="S13">
         <f>B13*Parameters!$B$6</f>
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="T13">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S13</f>
-        <v>6.8217960029032368E-2</v>
+        <v>4.3112964975747143</v>
       </c>
       <c r="U13">
         <f t="shared" si="3"/>
-        <v>252.91325881804465</v>
+        <v>1408.4139780434259</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
-        <v>0.23704993960222437</v>
+        <v>0.63372975854448954</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -6497,19 +6497,19 @@
       </c>
       <c r="S14">
         <f>B14*Parameters!$B$6</f>
-        <v>117.53003587928751</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="T14">
         <f>SQRT((C14/B14)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S14</f>
-        <v>0.67588312473327705</v>
+        <v>10.879365468629134</v>
       </c>
       <c r="U14">
         <f t="shared" si="3"/>
-        <v>539.09216352289343</v>
+        <v>3190.9247493710695</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>0.22016860333196855</v>
+        <v>0.62562551760822882</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -6565,19 +6565,19 @@
       </c>
       <c r="S15">
         <f>B15*Parameters!$B$6</f>
-        <v>117.53003587928751</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="T15">
         <f>SQRT((C15/B15)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S15</f>
-        <v>0.67588312473327705</v>
+        <v>10.879365468629134</v>
       </c>
       <c r="U15">
         <f t="shared" si="3"/>
-        <v>360.8648550576201</v>
+        <v>3069.1194108174595</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
-        <v>0.14430905309284556</v>
+        <v>0.58920754318890201</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -6633,19 +6633,19 @@
       </c>
       <c r="S16">
         <f>B16*Parameters!$B$6</f>
-        <v>117.53003587928751</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="T16">
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S16</f>
-        <v>0.67588312473327705</v>
+        <v>10.879365468629134</v>
       </c>
       <c r="U16">
         <f t="shared" si="3"/>
-        <v>762.41973201747066</v>
+        <v>5005.3518693745536</v>
       </c>
       <c r="W16">
         <f t="shared" si="0"/>
-        <v>0.19461060987011056</v>
+        <v>0.61335586468820347</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -6697,19 +6697,19 @@
       </c>
       <c r="S17">
         <f>B17*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T17">
         <f>SQRT((C17/B17)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S17</f>
-        <v>0.67715098344118985</v>
+        <v>21.621827512955516</v>
       </c>
       <c r="U17">
         <f t="shared" si="3"/>
-        <v>1112.8659341011255</v>
+        <v>6529.3750456208063</v>
       </c>
       <c r="W17">
         <f t="shared" si="0"/>
-        <v>0.22251630619969306</v>
+        <v>0.62675258180398885</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -6761,19 +6761,19 @@
       </c>
       <c r="S18">
         <f>B18*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T18">
         <f>SQRT((C18/B18)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S18</f>
-        <v>0.67715098344118985</v>
+        <v>21.621827512955516</v>
       </c>
       <c r="U18">
         <f t="shared" si="3"/>
-        <v>984.90595453934964</v>
+        <v>7194.0749360375185</v>
       </c>
       <c r="W18">
         <f t="shared" si="0"/>
-        <v>0.17179074197504676</v>
+        <v>0.60240070660151279</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -6825,19 +6825,19 @@
       </c>
       <c r="S19">
         <f>B19*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T19">
         <f>SQRT((C19/B19)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S19</f>
-        <v>0.67715098344118985</v>
+        <v>21.621827512955516</v>
       </c>
       <c r="U19">
         <f t="shared" si="3"/>
-        <v>962.26068373704118</v>
+        <v>7326.6588897726651</v>
       </c>
       <c r="W19">
         <f t="shared" si="0"/>
-        <v>0.16374719475545091</v>
+        <v>0.59853923239080997</v>
       </c>
     </row>
   </sheetData>
@@ -6849,7 +6849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -6938,23 +6938,23 @@
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>-0.37792111736410067</v>
+        <v>127.81352619499012</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>9.0265034147219989</v>
+        <v>17.864401649697054</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!S5:S7)</f>
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>-4.3460329982840428E-3</v>
+        <v>0.5178425389738156</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>7.6237635106609108E-2</v>
+        <v>3.6599482021059691E-2</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -6979,23 +6979,23 @@
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>118.85860288812466</v>
+        <v>727.21203336213875</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>16.726456657973756</v>
+        <v>85.942098216403082</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!S8:S10)</f>
-        <v>23.506007175857501</v>
+        <v>48.963600000000007</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>0.2127918011695287</v>
+        <v>0.62208412840144678</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>2.8382382835258149E-2</v>
+        <v>1.3625560510124042E-2</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -7020,23 +7020,23 @@
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!U11:U13)</f>
-        <v>264.0648722888086</v>
+        <v>1477.9033340471351</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
-        <v>19.190182245271512</v>
+        <v>97.898483982226224</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>0.23554345826628062</v>
+        <v>0.63300654045813587</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>3.2672324585046571E-3</v>
+        <v>1.5685037377726563E-3</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -7061,23 +7061,23 @@
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>554.12558353266138</v>
+        <v>3755.1320098543606</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>201.19911180333975</v>
+        <v>1084.4336807657073</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!S14:S16)</f>
-        <v>117.5300358792875</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="G6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>0.18636275543164157</v>
+        <v>0.60939630849511151</v>
       </c>
       <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>3.8596478696237779E-2</v>
+        <v>1.8529052300006489E-2</v>
       </c>
       <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -7102,23 +7102,23 @@
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!U17:U19)</f>
-        <v>1020.0108574591721</v>
+        <v>7016.7029571436624</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U19)</f>
-        <v>81.208072357769652</v>
+        <v>427.21305716109964</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!S17:S19)</f>
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="G7">
         <f>AVERAGE('Bottle Results'!W17:W19)</f>
-        <v>0.18601808097673023</v>
+        <v>0.60923084026543728</v>
       </c>
       <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
-        <v>3.1863223256413671E-2</v>
+        <v>1.5296611248176354E-2</v>
       </c>
       <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D19)</f>

--- a/Sorption Experiments/RaPYR_pH9/RaPYR_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaPYR_pH9/RaPYR_pH9_NoScript.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
   <si>
     <t>Parameters</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>Counts below detection</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
   </si>
 </sst>
 </file>
@@ -577,27 +583,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -813,11 +799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234552256"/>
-        <c:axId val="215878792"/>
+        <c:axId val="85362832"/>
+        <c:axId val="216072184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234552256"/>
+        <c:axId val="85362832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,12 +831,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215878792"/>
+        <c:crossAx val="216072184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215878792"/>
+        <c:axId val="216072184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234552256"/>
+        <c:crossAx val="85362832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1113,11 +1099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215876832"/>
-        <c:axId val="215876440"/>
+        <c:axId val="216078456"/>
+        <c:axId val="216076888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215876832"/>
+        <c:axId val="216078456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,12 +1131,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215876440"/>
+        <c:crossAx val="216076888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215876440"/>
+        <c:axId val="216076888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215876832"/>
+        <c:crossAx val="216078456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1281,6 +1267,7 @@
       <sheetName val="Scint Cocktail Testing"/>
       <sheetName val="Calibration Data"/>
       <sheetName val="Stock Log"/>
+      <sheetName val="Stock 6 Calc"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1304,6 +1291,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6313,7 +6301,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I2" sqref="I2:I19"/>
@@ -7566,15 +7554,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K7"/>
+      <selection activeCell="B6" sqref="B6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7606,13 +7598,19 @@
         <v>110</v>
       </c>
       <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
         <v>124</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7649,13 +7647,21 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!E2:E4)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!E2:E4)</f>
+        <v>8.5049005481153944E-3</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -7696,11 +7702,19 @@
         <v>1.7320508075688402E-2</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!E5:E7)</f>
+        <v>0.04</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!E5:E7)</f>
+        <v>4.5825756949558405E-3</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!I5:I7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -7741,11 +7755,19 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!E8:E10)</f>
+        <v>4.2333333333333334E-2</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!E8:E10)</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!I8:I10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -7786,11 +7808,19 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!E11:E13)</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!E11:E13)</f>
+        <v>2.645751311064589E-3</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!I11:I13)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -7831,11 +7861,19 @@
         <v>2.5166114784235295E-2</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!E14:E16)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!E14:E16)</f>
+        <v>1.011599393699567E-2</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!I14:I16)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -7876,6 +7914,14 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!E17:E19)</f>
+        <v>4.2666666666666665E-2</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!E17:E19)</f>
+        <v>3.7859388972001817E-3</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!I17:I19)</f>
         <v>3</v>
       </c>
